--- a/ProjectTest/Calendar.xlsx
+++ b/ProjectTest/Calendar.xlsx
@@ -16,6 +16,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Group Project Calendar</t>
+  </si>
+  <si>
+    <t>Create Classes</t>
+  </si>
+  <si>
+    <t>Find Sounds</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Image Plot</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +69,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +358,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>42844</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>42845</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>42846</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>42847</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>42848</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>42849</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <v>42850</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>42851</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
+        <v>42852</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3">
+        <v>42853</v>
+      </c>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>